--- a/backend/src/shared/infra/typeorm/seeds/xlsx/seed_cidades_sp.xlsx
+++ b/backend/src/shared/infra/typeorm/seeds/xlsx/seed_cidades_sp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maia/Documents/Projetos/gcm/backend/src/shared/infra/typeorm/seeds/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9C5683-0E7C-7A41-87F8-5662E7EA4810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E7352D-E979-F44A-AE9E-524A6CD29858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3899,9 +3899,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4208,18 +4211,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1277</v>
       </c>
       <c r="B1" t="s">
@@ -4228,12 +4231,12 @@
       <c r="C1" t="s">
         <v>1278</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>3500105</v>
       </c>
       <c r="B2" t="s">
@@ -4244,7 +4247,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>3500204</v>
       </c>
       <c r="B3" t="s">
@@ -4255,7 +4258,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3500303</v>
       </c>
       <c r="B4" t="s">
@@ -4266,7 +4269,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3500402</v>
       </c>
       <c r="B5" t="s">
@@ -4277,7 +4280,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3500501</v>
       </c>
       <c r="B6" t="s">
@@ -4288,7 +4291,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>3500550</v>
       </c>
       <c r="B7" t="s">
@@ -4299,7 +4302,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>3500600</v>
       </c>
       <c r="B8" t="s">
@@ -4310,7 +4313,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>3500709</v>
       </c>
       <c r="B9" t="s">
@@ -4321,7 +4324,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>3500758</v>
       </c>
       <c r="B10" t="s">
@@ -4332,7 +4335,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>3500808</v>
       </c>
       <c r="B11" t="s">
@@ -4343,7 +4346,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>3500907</v>
       </c>
       <c r="B12" t="s">
@@ -4354,7 +4357,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>3501004</v>
       </c>
       <c r="B13" t="s">
@@ -4365,7 +4368,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>3501103</v>
       </c>
       <c r="B14" t="s">
@@ -4376,7 +4379,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>3501152</v>
       </c>
       <c r="B15" t="s">
@@ -4387,7 +4390,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>3501202</v>
       </c>
       <c r="B16" t="s">
@@ -4398,7 +4401,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>3501301</v>
       </c>
       <c r="B17" t="s">
@@ -4409,7 +4412,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>3501400</v>
       </c>
       <c r="B18" t="s">
@@ -4420,7 +4423,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>3501509</v>
       </c>
       <c r="B19" t="s">
@@ -4431,7 +4434,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>3501608</v>
       </c>
       <c r="B20" t="s">
@@ -4442,7 +4445,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>3501707</v>
       </c>
       <c r="B21" t="s">
@@ -4453,7 +4456,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>3501806</v>
       </c>
       <c r="B22" t="s">
@@ -4464,7 +4467,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>3501905</v>
       </c>
       <c r="B23" t="s">
@@ -4475,7 +4478,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>3502002</v>
       </c>
       <c r="B24" t="s">
@@ -4486,7 +4489,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>3502101</v>
       </c>
       <c r="B25" t="s">
@@ -4497,7 +4500,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>3502200</v>
       </c>
       <c r="B26" t="s">
@@ -4508,7 +4511,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>3502309</v>
       </c>
       <c r="B27" t="s">
@@ -4519,7 +4522,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>3502408</v>
       </c>
       <c r="B28" t="s">
@@ -4530,7 +4533,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>3502507</v>
       </c>
       <c r="B29" t="s">
@@ -4541,7 +4544,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>3502606</v>
       </c>
       <c r="B30" t="s">
@@ -4552,7 +4555,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>3502705</v>
       </c>
       <c r="B31" t="s">
@@ -4563,7 +4566,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>3502754</v>
       </c>
       <c r="B32" t="s">
@@ -4574,7 +4577,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>3502804</v>
       </c>
       <c r="B33" t="s">
@@ -4585,7 +4588,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>3502903</v>
       </c>
       <c r="B34" t="s">
@@ -4596,7 +4599,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>3503000</v>
       </c>
       <c r="B35" t="s">
@@ -4607,7 +4610,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>3503109</v>
       </c>
       <c r="B36" t="s">
@@ -4618,7 +4621,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>3503158</v>
       </c>
       <c r="B37" t="s">
@@ -4629,7 +4632,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>3503208</v>
       </c>
       <c r="B38" t="s">
@@ -4640,7 +4643,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>3503307</v>
       </c>
       <c r="B39" t="s">
@@ -4651,7 +4654,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>3503356</v>
       </c>
       <c r="B40" t="s">
@@ -4662,7 +4665,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>3503406</v>
       </c>
       <c r="B41" t="s">
@@ -4673,7 +4676,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>3503505</v>
       </c>
       <c r="B42" t="s">
@@ -4684,7 +4687,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>3503604</v>
       </c>
       <c r="B43" t="s">
@@ -4695,7 +4698,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>3503703</v>
       </c>
       <c r="B44" t="s">
@@ -4706,7 +4709,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>3503802</v>
       </c>
       <c r="B45" t="s">
@@ -4717,7 +4720,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>3503901</v>
       </c>
       <c r="B46" t="s">
@@ -4728,7 +4731,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>3503950</v>
       </c>
       <c r="B47" t="s">
@@ -4739,7 +4742,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>3504008</v>
       </c>
       <c r="B48" t="s">
@@ -4750,7 +4753,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>3504107</v>
       </c>
       <c r="B49" t="s">
@@ -4761,7 +4764,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>3504206</v>
       </c>
       <c r="B50" t="s">
@@ -4772,7 +4775,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>3504305</v>
       </c>
       <c r="B51" t="s">
@@ -4783,7 +4786,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>3504404</v>
       </c>
       <c r="B52" t="s">
@@ -4794,7 +4797,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>3504503</v>
       </c>
       <c r="B53" t="s">
@@ -4805,7 +4808,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>3504602</v>
       </c>
       <c r="B54" t="s">
@@ -4816,7 +4819,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>3504701</v>
       </c>
       <c r="B55" t="s">
@@ -4827,7 +4830,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>3504800</v>
       </c>
       <c r="B56" t="s">
@@ -4838,7 +4841,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>3504909</v>
       </c>
       <c r="B57" t="s">
@@ -4849,7 +4852,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>3505005</v>
       </c>
       <c r="B58" t="s">
@@ -4860,7 +4863,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>3505104</v>
       </c>
       <c r="B59" t="s">
@@ -4871,7 +4874,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>3505203</v>
       </c>
       <c r="B60" t="s">
@@ -4882,7 +4885,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>3505302</v>
       </c>
       <c r="B61" t="s">
@@ -4893,7 +4896,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>3505351</v>
       </c>
       <c r="B62" t="s">
@@ -4904,7 +4907,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>3505401</v>
       </c>
       <c r="B63" t="s">
@@ -4915,7 +4918,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>3505500</v>
       </c>
       <c r="B64" t="s">
@@ -4926,7 +4929,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>3505609</v>
       </c>
       <c r="B65" t="s">
@@ -4937,7 +4940,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>3505708</v>
       </c>
       <c r="B66" t="s">
@@ -4948,7 +4951,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>3505807</v>
       </c>
       <c r="B67" t="s">
@@ -4959,7 +4962,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>3505906</v>
       </c>
       <c r="B68" t="s">
@@ -4970,7 +4973,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>3506003</v>
       </c>
       <c r="B69" t="s">
@@ -4981,7 +4984,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>3506102</v>
       </c>
       <c r="B70" t="s">
@@ -4992,7 +4995,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>3506201</v>
       </c>
       <c r="B71" t="s">
@@ -5003,7 +5006,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>3506300</v>
       </c>
       <c r="B72" t="s">
@@ -5014,7 +5017,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>3506359</v>
       </c>
       <c r="B73" t="s">
@@ -5025,7 +5028,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>3506409</v>
       </c>
       <c r="B74" t="s">
@@ -5036,7 +5039,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>3506508</v>
       </c>
       <c r="B75" t="s">
@@ -5047,7 +5050,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>3506607</v>
       </c>
       <c r="B76" t="s">
@@ -5058,7 +5061,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>3506706</v>
       </c>
       <c r="B77" t="s">
@@ -5069,7 +5072,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>3506805</v>
       </c>
       <c r="B78" t="s">
@@ -5080,7 +5083,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>3506904</v>
       </c>
       <c r="B79" t="s">
@@ -5091,7 +5094,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>3507001</v>
       </c>
       <c r="B80" t="s">
@@ -5102,7 +5105,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>3507100</v>
       </c>
       <c r="B81" t="s">
@@ -5113,7 +5116,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>3507159</v>
       </c>
       <c r="B82" t="s">
@@ -5124,7 +5127,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>3507209</v>
       </c>
       <c r="B83" t="s">
@@ -5135,7 +5138,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>3507308</v>
       </c>
       <c r="B84" t="s">
@@ -5146,7 +5149,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>3507407</v>
       </c>
       <c r="B85" t="s">
@@ -5157,7 +5160,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>3507456</v>
       </c>
       <c r="B86" t="s">
@@ -5168,7 +5171,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>3507506</v>
       </c>
       <c r="B87" t="s">
@@ -5179,7 +5182,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>3507605</v>
       </c>
       <c r="B88" t="s">
@@ -5190,7 +5193,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>3507704</v>
       </c>
       <c r="B89" t="s">
@@ -5201,7 +5204,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>3507753</v>
       </c>
       <c r="B90" t="s">
@@ -5212,7 +5215,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>3507803</v>
       </c>
       <c r="B91" t="s">
@@ -5223,7 +5226,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>3507902</v>
       </c>
       <c r="B92" t="s">
@@ -5234,7 +5237,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>3508009</v>
       </c>
       <c r="B93" t="s">
@@ -5245,7 +5248,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>3508108</v>
       </c>
       <c r="B94" t="s">
@@ -5256,7 +5259,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>3508207</v>
       </c>
       <c r="B95" t="s">
@@ -5267,7 +5270,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>3508306</v>
       </c>
       <c r="B96" t="s">
@@ -5278,7 +5281,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>3508405</v>
       </c>
       <c r="B97" t="s">
@@ -5289,7 +5292,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>3508504</v>
       </c>
       <c r="B98" t="s">
@@ -5300,7 +5303,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>3508603</v>
       </c>
       <c r="B99" t="s">
@@ -5311,7 +5314,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>3508702</v>
       </c>
       <c r="B100" t="s">
@@ -5322,7 +5325,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>3508801</v>
       </c>
       <c r="B101" t="s">
@@ -5333,7 +5336,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>3508900</v>
       </c>
       <c r="B102" t="s">
@@ -5344,7 +5347,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>3509007</v>
       </c>
       <c r="B103" t="s">
@@ -5355,7 +5358,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>3509106</v>
       </c>
       <c r="B104" t="s">
@@ -5366,7 +5369,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>3509205</v>
       </c>
       <c r="B105" t="s">
@@ -5377,7 +5380,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>3509254</v>
       </c>
       <c r="B106" t="s">
@@ -5388,7 +5391,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>3509304</v>
       </c>
       <c r="B107" t="s">
@@ -5399,7 +5402,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>3509403</v>
       </c>
       <c r="B108" t="s">
@@ -5410,7 +5413,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>3509452</v>
       </c>
       <c r="B109" t="s">
@@ -5421,7 +5424,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>3509502</v>
       </c>
       <c r="B110" t="s">
@@ -5432,7 +5435,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>3509601</v>
       </c>
       <c r="B111" t="s">
@@ -5443,7 +5446,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>3509700</v>
       </c>
       <c r="B112" t="s">
@@ -5454,7 +5457,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>3509809</v>
       </c>
       <c r="B113" t="s">
@@ -5465,7 +5468,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>3509908</v>
       </c>
       <c r="B114" t="s">
@@ -5476,7 +5479,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="2">
         <v>3509957</v>
       </c>
       <c r="B115" t="s">
@@ -5487,7 +5490,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>3510005</v>
       </c>
       <c r="B116" t="s">
@@ -5498,7 +5501,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="2">
         <v>3510104</v>
       </c>
       <c r="B117" t="s">
@@ -5509,7 +5512,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>3510153</v>
       </c>
       <c r="B118" t="s">
@@ -5520,7 +5523,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="2">
         <v>3510203</v>
       </c>
       <c r="B119" t="s">
@@ -5531,7 +5534,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>3510302</v>
       </c>
       <c r="B120" t="s">
@@ -5542,7 +5545,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="2">
         <v>3510401</v>
       </c>
       <c r="B121" t="s">
@@ -5553,7 +5556,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>3510500</v>
       </c>
       <c r="B122" t="s">
@@ -5564,7 +5567,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="2">
         <v>3510609</v>
       </c>
       <c r="B123" t="s">
@@ -5575,7 +5578,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>3510708</v>
       </c>
       <c r="B124" t="s">
@@ -5586,7 +5589,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="2">
         <v>3510807</v>
       </c>
       <c r="B125" t="s">
@@ -5597,7 +5600,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>3510906</v>
       </c>
       <c r="B126" t="s">
@@ -5608,7 +5611,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="2">
         <v>3511003</v>
       </c>
       <c r="B127" t="s">
@@ -5619,7 +5622,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="2">
         <v>3511102</v>
       </c>
       <c r="B128" t="s">
@@ -5630,7 +5633,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="2">
         <v>3511201</v>
       </c>
       <c r="B129" t="s">
@@ -5641,7 +5644,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>3511300</v>
       </c>
       <c r="B130" t="s">
@@ -5652,7 +5655,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>3511409</v>
       </c>
       <c r="B131" t="s">
@@ -5663,7 +5666,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="2">
         <v>3511508</v>
       </c>
       <c r="B132" t="s">
@@ -5674,7 +5677,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="2">
         <v>3511607</v>
       </c>
       <c r="B133" t="s">
@@ -5685,7 +5688,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>3511706</v>
       </c>
       <c r="B134" t="s">
@@ -5696,7 +5699,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="2">
         <v>3511904</v>
       </c>
       <c r="B135" t="s">
@@ -5707,7 +5710,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>3512001</v>
       </c>
       <c r="B136" t="s">
@@ -5718,7 +5721,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>3512100</v>
       </c>
       <c r="B137" t="s">
@@ -5729,7 +5732,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="2">
         <v>3512209</v>
       </c>
       <c r="B138" t="s">
@@ -5740,7 +5743,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="2">
         <v>3512308</v>
       </c>
       <c r="B139" t="s">
@@ -5751,7 +5754,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="2">
         <v>3512407</v>
       </c>
       <c r="B140" t="s">
@@ -5762,7 +5765,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="2">
         <v>3512506</v>
       </c>
       <c r="B141" t="s">
@@ -5773,7 +5776,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>3512605</v>
       </c>
       <c r="B142" t="s">
@@ -5784,7 +5787,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="2">
         <v>3512704</v>
       </c>
       <c r="B143" t="s">
@@ -5795,7 +5798,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="2">
         <v>3512803</v>
       </c>
       <c r="B144" t="s">
@@ -5806,7 +5809,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="2">
         <v>3512902</v>
       </c>
       <c r="B145" t="s">
@@ -5817,7 +5820,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="2">
         <v>3513009</v>
       </c>
       <c r="B146" t="s">
@@ -5828,7 +5831,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>3513108</v>
       </c>
       <c r="B147" t="s">
@@ -5839,7 +5842,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>3513207</v>
       </c>
       <c r="B148" t="s">
@@ -5850,7 +5853,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>3513306</v>
       </c>
       <c r="B149" t="s">
@@ -5861,7 +5864,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="2">
         <v>3513405</v>
       </c>
       <c r="B150" t="s">
@@ -5872,7 +5875,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>3513504</v>
       </c>
       <c r="B151" t="s">
@@ -5883,7 +5886,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>3513603</v>
       </c>
       <c r="B152" t="s">
@@ -5894,7 +5897,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>3513702</v>
       </c>
       <c r="B153" t="s">
@@ -5905,7 +5908,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="2">
         <v>3513801</v>
       </c>
       <c r="B154" t="s">
@@ -5916,7 +5919,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="2">
         <v>3513850</v>
       </c>
       <c r="B155" t="s">
@@ -5927,7 +5930,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="2">
         <v>3513900</v>
       </c>
       <c r="B156" t="s">
@@ -5938,7 +5941,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>3514007</v>
       </c>
       <c r="B157" t="s">
@@ -5949,7 +5952,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="2">
         <v>3514106</v>
       </c>
       <c r="B158" t="s">
@@ -5960,7 +5963,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="2">
         <v>3514205</v>
       </c>
       <c r="B159" t="s">
@@ -5971,7 +5974,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>3514304</v>
       </c>
       <c r="B160" t="s">
@@ -5982,7 +5985,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>3514403</v>
       </c>
       <c r="B161" t="s">
@@ -5993,7 +5996,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>3514502</v>
       </c>
       <c r="B162" t="s">
@@ -6004,7 +6007,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>3514601</v>
       </c>
       <c r="B163" t="s">
@@ -6015,7 +6018,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>3514700</v>
       </c>
       <c r="B164" t="s">
@@ -6026,7 +6029,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>3514809</v>
       </c>
       <c r="B165" t="s">
@@ -6037,7 +6040,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>3514908</v>
       </c>
       <c r="B166" t="s">
@@ -6048,7 +6051,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>3514924</v>
       </c>
       <c r="B167" t="s">
@@ -6059,7 +6062,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>3514957</v>
       </c>
       <c r="B168" t="s">
@@ -6070,7 +6073,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>3515004</v>
       </c>
       <c r="B169" t="s">
@@ -6081,7 +6084,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>3515103</v>
       </c>
       <c r="B170" t="s">
@@ -6092,7 +6095,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>3515129</v>
       </c>
       <c r="B171" t="s">
@@ -6103,7 +6106,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>3515152</v>
       </c>
       <c r="B172" t="s">
@@ -6114,7 +6117,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>3515186</v>
       </c>
       <c r="B173" t="s">
@@ -6125,7 +6128,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>3515194</v>
       </c>
       <c r="B174" t="s">
@@ -6136,7 +6139,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="2">
         <v>3515202</v>
       </c>
       <c r="B175" t="s">
@@ -6147,7 +6150,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="2">
         <v>3515301</v>
       </c>
       <c r="B176" t="s">
@@ -6158,7 +6161,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="2">
         <v>3515350</v>
       </c>
       <c r="B177" t="s">
@@ -6169,7 +6172,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="2">
         <v>3515400</v>
       </c>
       <c r="B178" t="s">
@@ -6180,7 +6183,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="2">
         <v>3515509</v>
       </c>
       <c r="B179" t="s">
@@ -6191,7 +6194,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="2">
         <v>3515608</v>
       </c>
       <c r="B180" t="s">
@@ -6202,7 +6205,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="2">
         <v>3515657</v>
       </c>
       <c r="B181" t="s">
@@ -6213,7 +6216,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="2">
         <v>3515707</v>
       </c>
       <c r="B182" t="s">
@@ -6224,7 +6227,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="2">
         <v>3515806</v>
       </c>
       <c r="B183" t="s">
@@ -6235,7 +6238,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="2">
         <v>3515905</v>
       </c>
       <c r="B184" t="s">
@@ -6246,7 +6249,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="2">
         <v>3516002</v>
       </c>
       <c r="B185" t="s">
@@ -6257,7 +6260,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" s="2">
         <v>3516101</v>
       </c>
       <c r="B186" t="s">
@@ -6268,7 +6271,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" s="2">
         <v>3516200</v>
       </c>
       <c r="B187" t="s">
@@ -6279,7 +6282,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" s="2">
         <v>3516309</v>
       </c>
       <c r="B188" t="s">
@@ -6290,7 +6293,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" s="2">
         <v>3516408</v>
       </c>
       <c r="B189" t="s">
@@ -6301,7 +6304,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" s="2">
         <v>3516507</v>
       </c>
       <c r="B190" t="s">
@@ -6312,7 +6315,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" s="2">
         <v>3516606</v>
       </c>
       <c r="B191" t="s">
@@ -6323,7 +6326,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" s="2">
         <v>3516705</v>
       </c>
       <c r="B192" t="s">
@@ -6334,7 +6337,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" s="2">
         <v>3516804</v>
       </c>
       <c r="B193" t="s">
@@ -6345,7 +6348,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" s="2">
         <v>3516853</v>
       </c>
       <c r="B194" t="s">
@@ -6356,7 +6359,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" s="2">
         <v>3516903</v>
       </c>
       <c r="B195" t="s">
@@ -6367,7 +6370,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" s="2">
         <v>3517000</v>
       </c>
       <c r="B196" t="s">
@@ -6378,7 +6381,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" s="2">
         <v>3517109</v>
       </c>
       <c r="B197" t="s">
@@ -6389,7 +6392,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" s="2">
         <v>3517208</v>
       </c>
       <c r="B198" t="s">
@@ -6400,7 +6403,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" s="2">
         <v>3517307</v>
       </c>
       <c r="B199" t="s">
@@ -6411,7 +6414,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" s="2">
         <v>3517406</v>
       </c>
       <c r="B200" t="s">
@@ -6422,7 +6425,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" s="2">
         <v>3517505</v>
       </c>
       <c r="B201" t="s">
@@ -6433,7 +6436,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" s="2">
         <v>3517604</v>
       </c>
       <c r="B202" t="s">
@@ -6444,7 +6447,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" s="2">
         <v>3517703</v>
       </c>
       <c r="B203" t="s">
@@ -6455,7 +6458,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" s="2">
         <v>3517802</v>
       </c>
       <c r="B204" t="s">
@@ -6466,7 +6469,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" s="2">
         <v>3517901</v>
       </c>
       <c r="B205" t="s">
@@ -6477,7 +6480,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" s="2">
         <v>3518008</v>
       </c>
       <c r="B206" t="s">
@@ -6488,7 +6491,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" s="2">
         <v>3518107</v>
       </c>
       <c r="B207" t="s">
@@ -6499,7 +6502,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" s="2">
         <v>3518206</v>
       </c>
       <c r="B208" t="s">
@@ -6510,7 +6513,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" s="2">
         <v>3518305</v>
       </c>
       <c r="B209" t="s">
@@ -6521,7 +6524,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" s="2">
         <v>3518404</v>
       </c>
       <c r="B210" t="s">
@@ -6532,7 +6535,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" s="2">
         <v>3518503</v>
       </c>
       <c r="B211" t="s">
@@ -6543,7 +6546,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" s="2">
         <v>3518602</v>
       </c>
       <c r="B212" t="s">
@@ -6554,7 +6557,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" s="2">
         <v>3518701</v>
       </c>
       <c r="B213" t="s">
@@ -6565,7 +6568,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" s="2">
         <v>3518800</v>
       </c>
       <c r="B214" t="s">
@@ -6576,7 +6579,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" s="2">
         <v>3518859</v>
       </c>
       <c r="B215" t="s">
@@ -6587,7 +6590,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" s="2">
         <v>3518909</v>
       </c>
       <c r="B216" t="s">
@@ -6598,7 +6601,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" s="2">
         <v>3519006</v>
       </c>
       <c r="B217" t="s">
@@ -6609,7 +6612,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="A218" s="2">
         <v>3519055</v>
       </c>
       <c r="B218" t="s">
@@ -6620,7 +6623,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="A219" s="2">
         <v>3519071</v>
       </c>
       <c r="B219" t="s">
@@ -6631,7 +6634,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="A220" s="2">
         <v>3519105</v>
       </c>
       <c r="B220" t="s">
@@ -6642,7 +6645,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="A221" s="2">
         <v>3519204</v>
       </c>
       <c r="B221" t="s">
@@ -6653,7 +6656,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="A222" s="2">
         <v>3519253</v>
       </c>
       <c r="B222" t="s">
@@ -6664,7 +6667,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="A223" s="2">
         <v>3519303</v>
       </c>
       <c r="B223" t="s">
@@ -6675,7 +6678,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="A224" s="2">
         <v>3519402</v>
       </c>
       <c r="B224" t="s">
@@ -6686,7 +6689,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="A225" s="2">
         <v>3519501</v>
       </c>
       <c r="B225" t="s">
@@ -6697,7 +6700,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="A226" s="2">
         <v>3519600</v>
       </c>
       <c r="B226" t="s">
@@ -6708,7 +6711,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="A227" s="2">
         <v>3519709</v>
       </c>
       <c r="B227" t="s">
@@ -6719,7 +6722,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" s="2">
         <v>3519808</v>
       </c>
       <c r="B228" t="s">
@@ -6730,7 +6733,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="A229" s="2">
         <v>3519907</v>
       </c>
       <c r="B229" t="s">
@@ -6741,7 +6744,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="A230" s="2">
         <v>3520004</v>
       </c>
       <c r="B230" t="s">
@@ -6752,7 +6755,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>3520103</v>
       </c>
       <c r="B231" t="s">
@@ -6763,7 +6766,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="A232" s="2">
         <v>3520202</v>
       </c>
       <c r="B232" t="s">
@@ -6774,7 +6777,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="A233" s="2">
         <v>3520301</v>
       </c>
       <c r="B233" t="s">
@@ -6785,7 +6788,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="A234" s="2">
         <v>3520400</v>
       </c>
       <c r="B234" t="s">
@@ -6796,7 +6799,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="A235" s="2">
         <v>3520426</v>
       </c>
       <c r="B235" t="s">
@@ -6807,7 +6810,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="A236" s="2">
         <v>3520442</v>
       </c>
       <c r="B236" t="s">
@@ -6818,7 +6821,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="A237" s="2">
         <v>3520509</v>
       </c>
       <c r="B237" t="s">
@@ -6829,7 +6832,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="A238" s="2">
         <v>3520608</v>
       </c>
       <c r="B238" t="s">
@@ -6840,7 +6843,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="A239" s="2">
         <v>3520707</v>
       </c>
       <c r="B239" t="s">
@@ -6851,7 +6854,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="A240" s="2">
         <v>3520806</v>
       </c>
       <c r="B240" t="s">
@@ -6862,7 +6865,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="A241" s="2">
         <v>3520905</v>
       </c>
       <c r="B241" t="s">
@@ -6873,7 +6876,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="A242" s="2">
         <v>3521002</v>
       </c>
       <c r="B242" t="s">
@@ -6884,7 +6887,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="A243" s="2">
         <v>3521101</v>
       </c>
       <c r="B243" t="s">
@@ -6895,7 +6898,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="A244" s="2">
         <v>3521150</v>
       </c>
       <c r="B244" t="s">
@@ -6906,7 +6909,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="A245" s="2">
         <v>3521200</v>
       </c>
       <c r="B245" t="s">
@@ -6917,7 +6920,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="A246" s="2">
         <v>3521309</v>
       </c>
       <c r="B246" t="s">
@@ -6928,7 +6931,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247">
+      <c r="A247" s="2">
         <v>3521408</v>
       </c>
       <c r="B247" t="s">
@@ -6939,7 +6942,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248">
+      <c r="A248" s="2">
         <v>3521507</v>
       </c>
       <c r="B248" t="s">
@@ -6950,7 +6953,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249">
+      <c r="A249" s="2">
         <v>3521606</v>
       </c>
       <c r="B249" t="s">
@@ -6961,7 +6964,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="A250" s="2">
         <v>3521705</v>
       </c>
       <c r="B250" t="s">
@@ -6972,7 +6975,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="A251" s="2">
         <v>3521804</v>
       </c>
       <c r="B251" t="s">
@@ -6983,7 +6986,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="A252" s="2">
         <v>3521903</v>
       </c>
       <c r="B252" t="s">
@@ -6994,7 +6997,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="A253" s="2">
         <v>3522000</v>
       </c>
       <c r="B253" t="s">
@@ -7005,7 +7008,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254">
+      <c r="A254" s="2">
         <v>3522109</v>
       </c>
       <c r="B254" t="s">
@@ -7016,7 +7019,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="A255" s="2">
         <v>3522158</v>
       </c>
       <c r="B255" t="s">
@@ -7027,7 +7030,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256">
+      <c r="A256" s="2">
         <v>3522208</v>
       </c>
       <c r="B256" t="s">
@@ -7038,7 +7041,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="A257" s="2">
         <v>3522307</v>
       </c>
       <c r="B257" t="s">
@@ -7049,7 +7052,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="A258" s="2">
         <v>3522406</v>
       </c>
       <c r="B258" t="s">
@@ -7060,7 +7063,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="A259" s="2">
         <v>3522505</v>
       </c>
       <c r="B259" t="s">
@@ -7071,7 +7074,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="A260" s="2">
         <v>3522604</v>
       </c>
       <c r="B260" t="s">
@@ -7082,7 +7085,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="A261" s="2">
         <v>3522653</v>
       </c>
       <c r="B261" t="s">
@@ -7093,7 +7096,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="A262" s="2">
         <v>3522703</v>
       </c>
       <c r="B262" t="s">
@@ -7104,7 +7107,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263">
+      <c r="A263" s="2">
         <v>3522802</v>
       </c>
       <c r="B263" t="s">
@@ -7115,7 +7118,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="A264" s="2">
         <v>3522901</v>
       </c>
       <c r="B264" t="s">
@@ -7126,7 +7129,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265">
+      <c r="A265" s="2">
         <v>3523008</v>
       </c>
       <c r="B265" t="s">
@@ -7137,7 +7140,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266">
+      <c r="A266" s="2">
         <v>3523107</v>
       </c>
       <c r="B266" t="s">
@@ -7148,7 +7151,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267">
+      <c r="A267" s="2">
         <v>3523206</v>
       </c>
       <c r="B267" t="s">
@@ -7159,7 +7162,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268">
+      <c r="A268" s="2">
         <v>3523305</v>
       </c>
       <c r="B268" t="s">
@@ -7170,7 +7173,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269">
+      <c r="A269" s="2">
         <v>3523404</v>
       </c>
       <c r="B269" t="s">
@@ -7181,7 +7184,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270">
+      <c r="A270" s="2">
         <v>3523503</v>
       </c>
       <c r="B270" t="s">
@@ -7192,7 +7195,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271">
+      <c r="A271" s="2">
         <v>3523602</v>
       </c>
       <c r="B271" t="s">
@@ -7203,7 +7206,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272">
+      <c r="A272" s="2">
         <v>3523701</v>
       </c>
       <c r="B272" t="s">
@@ -7214,7 +7217,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273">
+      <c r="A273" s="2">
         <v>3523800</v>
       </c>
       <c r="B273" t="s">
@@ -7225,7 +7228,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274">
+      <c r="A274" s="2">
         <v>3523909</v>
       </c>
       <c r="B274" t="s">
@@ -7236,7 +7239,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275">
+      <c r="A275" s="2">
         <v>3524006</v>
       </c>
       <c r="B275" t="s">
@@ -7247,7 +7250,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276">
+      <c r="A276" s="2">
         <v>3524105</v>
       </c>
       <c r="B276" t="s">
@@ -7258,7 +7261,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277">
+      <c r="A277" s="2">
         <v>3524204</v>
       </c>
       <c r="B277" t="s">
@@ -7269,7 +7272,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278">
+      <c r="A278" s="2">
         <v>3524303</v>
       </c>
       <c r="B278" t="s">
@@ -7280,7 +7283,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279">
+      <c r="A279" s="2">
         <v>3524402</v>
       </c>
       <c r="B279" t="s">
@@ -7291,7 +7294,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280">
+      <c r="A280" s="2">
         <v>3524501</v>
       </c>
       <c r="B280" t="s">
@@ -7302,7 +7305,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281">
+      <c r="A281" s="2">
         <v>3524600</v>
       </c>
       <c r="B281" t="s">
@@ -7313,7 +7316,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282">
+      <c r="A282" s="2">
         <v>3524709</v>
       </c>
       <c r="B282" t="s">
@@ -7324,7 +7327,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283">
+      <c r="A283" s="2">
         <v>3524808</v>
       </c>
       <c r="B283" t="s">
@@ -7335,7 +7338,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284">
+      <c r="A284" s="2">
         <v>3524907</v>
       </c>
       <c r="B284" t="s">
@@ -7346,7 +7349,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285">
+      <c r="A285" s="2">
         <v>3525003</v>
       </c>
       <c r="B285" t="s">
@@ -7357,7 +7360,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286">
+      <c r="A286" s="2">
         <v>3525102</v>
       </c>
       <c r="B286" t="s">
@@ -7368,7 +7371,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287">
+      <c r="A287" s="2">
         <v>3525201</v>
       </c>
       <c r="B287" t="s">
@@ -7379,7 +7382,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288">
+      <c r="A288" s="2">
         <v>3525300</v>
       </c>
       <c r="B288" t="s">
@@ -7390,7 +7393,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289">
+      <c r="A289" s="2">
         <v>3525409</v>
       </c>
       <c r="B289" t="s">
@@ -7401,7 +7404,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290">
+      <c r="A290" s="2">
         <v>3525508</v>
       </c>
       <c r="B290" t="s">
@@ -7412,7 +7415,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291">
+      <c r="A291" s="2">
         <v>3525607</v>
       </c>
       <c r="B291" t="s">
@@ -7423,7 +7426,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292">
+      <c r="A292" s="2">
         <v>3525706</v>
       </c>
       <c r="B292" t="s">
@@ -7434,7 +7437,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293">
+      <c r="A293" s="2">
         <v>3525805</v>
       </c>
       <c r="B293" t="s">
@@ -7445,7 +7448,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294">
+      <c r="A294" s="2">
         <v>3525854</v>
       </c>
       <c r="B294" t="s">
@@ -7456,7 +7459,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295">
+      <c r="A295" s="2">
         <v>3525904</v>
       </c>
       <c r="B295" t="s">
@@ -7467,7 +7470,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296">
+      <c r="A296" s="2">
         <v>3526001</v>
       </c>
       <c r="B296" t="s">
@@ -7478,7 +7481,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297">
+      <c r="A297" s="2">
         <v>3526100</v>
       </c>
       <c r="B297" t="s">
@@ -7489,7 +7492,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298">
+      <c r="A298" s="2">
         <v>3526209</v>
       </c>
       <c r="B298" t="s">
@@ -7500,7 +7503,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299">
+      <c r="A299" s="2">
         <v>3526308</v>
       </c>
       <c r="B299" t="s">
@@ -7511,7 +7514,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300">
+      <c r="A300" s="2">
         <v>3526407</v>
       </c>
       <c r="B300" t="s">
@@ -7522,7 +7525,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301">
+      <c r="A301" s="2">
         <v>3526506</v>
       </c>
       <c r="B301" t="s">
@@ -7533,7 +7536,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302">
+      <c r="A302" s="2">
         <v>3526605</v>
       </c>
       <c r="B302" t="s">
@@ -7544,7 +7547,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303">
+      <c r="A303" s="2">
         <v>3526704</v>
       </c>
       <c r="B303" t="s">
@@ -7555,7 +7558,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304">
+      <c r="A304" s="2">
         <v>3526803</v>
       </c>
       <c r="B304" t="s">
@@ -7566,7 +7569,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305">
+      <c r="A305" s="2">
         <v>3526902</v>
       </c>
       <c r="B305" t="s">
@@ -7577,7 +7580,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306">
+      <c r="A306" s="2">
         <v>3527009</v>
       </c>
       <c r="B306" t="s">
@@ -7588,7 +7591,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307">
+      <c r="A307" s="2">
         <v>3527108</v>
       </c>
       <c r="B307" t="s">
@@ -7599,7 +7602,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308">
+      <c r="A308" s="2">
         <v>3527207</v>
       </c>
       <c r="B308" t="s">
@@ -7610,7 +7613,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309">
+      <c r="A309" s="2">
         <v>3527256</v>
       </c>
       <c r="B309" t="s">
@@ -7621,7 +7624,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310">
+      <c r="A310" s="2">
         <v>3527306</v>
       </c>
       <c r="B310" t="s">
@@ -7632,7 +7635,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311">
+      <c r="A311" s="2">
         <v>3527405</v>
       </c>
       <c r="B311" t="s">
@@ -7643,7 +7646,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312">
+      <c r="A312" s="2">
         <v>3527504</v>
       </c>
       <c r="B312" t="s">
@@ -7654,7 +7657,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313">
+      <c r="A313" s="2">
         <v>3527603</v>
       </c>
       <c r="B313" t="s">
@@ -7665,7 +7668,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314">
+      <c r="A314" s="2">
         <v>3527702</v>
       </c>
       <c r="B314" t="s">
@@ -7676,7 +7679,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315">
+      <c r="A315" s="2">
         <v>3527801</v>
       </c>
       <c r="B315" t="s">
@@ -7687,7 +7690,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316">
+      <c r="A316" s="2">
         <v>3527900</v>
       </c>
       <c r="B316" t="s">
@@ -7698,7 +7701,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317">
+      <c r="A317" s="2">
         <v>3528007</v>
       </c>
       <c r="B317" t="s">
@@ -7709,7 +7712,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318">
+      <c r="A318" s="2">
         <v>3528106</v>
       </c>
       <c r="B318" t="s">
@@ -7720,7 +7723,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319">
+      <c r="A319" s="2">
         <v>3528205</v>
       </c>
       <c r="B319" t="s">
@@ -7731,7 +7734,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320">
+      <c r="A320" s="2">
         <v>3528304</v>
       </c>
       <c r="B320" t="s">
@@ -7742,7 +7745,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321">
+      <c r="A321" s="2">
         <v>3528403</v>
       </c>
       <c r="B321" t="s">
@@ -7753,7 +7756,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322">
+      <c r="A322" s="2">
         <v>3528502</v>
       </c>
       <c r="B322" t="s">
@@ -7764,7 +7767,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323">
+      <c r="A323" s="2">
         <v>3528601</v>
       </c>
       <c r="B323" t="s">
@@ -7775,7 +7778,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324">
+      <c r="A324" s="2">
         <v>3528700</v>
       </c>
       <c r="B324" t="s">
@@ -7786,7 +7789,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325">
+      <c r="A325" s="2">
         <v>3528809</v>
       </c>
       <c r="B325" t="s">
@@ -7797,7 +7800,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326">
+      <c r="A326" s="2">
         <v>3528858</v>
       </c>
       <c r="B326" t="s">
@@ -7808,7 +7811,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327">
+      <c r="A327" s="2">
         <v>3528908</v>
       </c>
       <c r="B327" t="s">
@@ -7819,7 +7822,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328">
+      <c r="A328" s="2">
         <v>3529005</v>
       </c>
       <c r="B328" t="s">
@@ -7830,7 +7833,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329">
+      <c r="A329" s="2">
         <v>3529104</v>
       </c>
       <c r="B329" t="s">
@@ -7841,7 +7844,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330">
+      <c r="A330" s="2">
         <v>3529203</v>
       </c>
       <c r="B330" t="s">
@@ -7852,7 +7855,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331">
+      <c r="A331" s="2">
         <v>3529302</v>
       </c>
       <c r="B331" t="s">
@@ -7863,7 +7866,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332">
+      <c r="A332" s="2">
         <v>3529401</v>
       </c>
       <c r="B332" t="s">
@@ -7874,7 +7877,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333">
+      <c r="A333" s="2">
         <v>3529500</v>
       </c>
       <c r="B333" t="s">
@@ -7885,7 +7888,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334">
+      <c r="A334" s="2">
         <v>3529609</v>
       </c>
       <c r="B334" t="s">
@@ -7896,7 +7899,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335">
+      <c r="A335" s="2">
         <v>3529658</v>
       </c>
       <c r="B335" t="s">
@@ -7907,7 +7910,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336">
+      <c r="A336" s="2">
         <v>3529708</v>
       </c>
       <c r="B336" t="s">
@@ -7918,7 +7921,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337">
+      <c r="A337" s="2">
         <v>3529807</v>
       </c>
       <c r="B337" t="s">
@@ -7929,7 +7932,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338">
+      <c r="A338" s="2">
         <v>3529906</v>
       </c>
       <c r="B338" t="s">
@@ -7940,7 +7943,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339">
+      <c r="A339" s="2">
         <v>3530003</v>
       </c>
       <c r="B339" t="s">
@@ -7951,7 +7954,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340">
+      <c r="A340" s="2">
         <v>3530102</v>
       </c>
       <c r="B340" t="s">
@@ -7962,7 +7965,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341">
+      <c r="A341" s="2">
         <v>3530201</v>
       </c>
       <c r="B341" t="s">
@@ -7973,7 +7976,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342">
+      <c r="A342" s="2">
         <v>3530300</v>
       </c>
       <c r="B342" t="s">
@@ -7984,7 +7987,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343">
+      <c r="A343" s="2">
         <v>3530409</v>
       </c>
       <c r="B343" t="s">
@@ -7995,7 +7998,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344">
+      <c r="A344" s="2">
         <v>3530508</v>
       </c>
       <c r="B344" t="s">
@@ -8006,7 +8009,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345">
+      <c r="A345" s="2">
         <v>3530607</v>
       </c>
       <c r="B345" t="s">
@@ -8017,7 +8020,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346">
+      <c r="A346" s="2">
         <v>3530706</v>
       </c>
       <c r="B346" t="s">
@@ -8028,7 +8031,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347">
+      <c r="A347" s="2">
         <v>3530805</v>
       </c>
       <c r="B347" t="s">
@@ -8039,7 +8042,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348">
+      <c r="A348" s="2">
         <v>3530904</v>
       </c>
       <c r="B348" t="s">
@@ -8050,7 +8053,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349">
+      <c r="A349" s="2">
         <v>3531001</v>
       </c>
       <c r="B349" t="s">
@@ -8061,7 +8064,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350">
+      <c r="A350" s="2">
         <v>3531100</v>
       </c>
       <c r="B350" t="s">
@@ -8072,7 +8075,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351">
+      <c r="A351" s="2">
         <v>3531209</v>
       </c>
       <c r="B351" t="s">
@@ -8083,7 +8086,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352">
+      <c r="A352" s="2">
         <v>3531308</v>
       </c>
       <c r="B352" t="s">
@@ -8094,7 +8097,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353">
+      <c r="A353" s="2">
         <v>3531407</v>
       </c>
       <c r="B353" t="s">
@@ -8105,7 +8108,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354">
+      <c r="A354" s="2">
         <v>3531506</v>
       </c>
       <c r="B354" t="s">
@@ -8116,7 +8119,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355">
+      <c r="A355" s="2">
         <v>3531605</v>
       </c>
       <c r="B355" t="s">
@@ -8127,7 +8130,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356">
+      <c r="A356" s="2">
         <v>3531704</v>
       </c>
       <c r="B356" t="s">
@@ -8138,7 +8141,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357">
+      <c r="A357" s="2">
         <v>3531803</v>
       </c>
       <c r="B357" t="s">
@@ -8149,7 +8152,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358">
+      <c r="A358" s="2">
         <v>3531902</v>
       </c>
       <c r="B358" t="s">
@@ -8160,7 +8163,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359">
+      <c r="A359" s="2">
         <v>3532009</v>
       </c>
       <c r="B359" t="s">
@@ -8171,7 +8174,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360">
+      <c r="A360" s="2">
         <v>3532058</v>
       </c>
       <c r="B360" t="s">
@@ -8182,7 +8185,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361">
+      <c r="A361" s="2">
         <v>3532108</v>
       </c>
       <c r="B361" t="s">
@@ -8193,7 +8196,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362">
+      <c r="A362" s="2">
         <v>3532157</v>
       </c>
       <c r="B362" t="s">
@@ -8204,7 +8207,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363">
+      <c r="A363" s="2">
         <v>3532207</v>
       </c>
       <c r="B363" t="s">
@@ -8215,7 +8218,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364">
+      <c r="A364" s="2">
         <v>3532306</v>
       </c>
       <c r="B364" t="s">
@@ -8226,7 +8229,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365">
+      <c r="A365" s="2">
         <v>3532405</v>
       </c>
       <c r="B365" t="s">
@@ -8237,7 +8240,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366">
+      <c r="A366" s="2">
         <v>3532504</v>
       </c>
       <c r="B366" t="s">
@@ -8248,7 +8251,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367">
+      <c r="A367" s="2">
         <v>3532603</v>
       </c>
       <c r="B367" t="s">
@@ -8259,7 +8262,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368">
+      <c r="A368" s="2">
         <v>3532702</v>
       </c>
       <c r="B368" t="s">
@@ -8270,7 +8273,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369">
+      <c r="A369" s="2">
         <v>3532801</v>
       </c>
       <c r="B369" t="s">
@@ -8281,7 +8284,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370">
+      <c r="A370" s="2">
         <v>3532827</v>
       </c>
       <c r="B370" t="s">
@@ -8292,7 +8295,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371">
+      <c r="A371" s="2">
         <v>3532843</v>
       </c>
       <c r="B371" t="s">
@@ -8303,7 +8306,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372">
+      <c r="A372" s="2">
         <v>3532868</v>
       </c>
       <c r="B372" t="s">
@@ -8314,7 +8317,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373">
+      <c r="A373" s="2">
         <v>3532900</v>
       </c>
       <c r="B373" t="s">
@@ -8325,7 +8328,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374">
+      <c r="A374" s="2">
         <v>3533007</v>
       </c>
       <c r="B374" t="s">
@@ -8336,7 +8339,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375">
+      <c r="A375" s="2">
         <v>3533106</v>
       </c>
       <c r="B375" t="s">
@@ -8347,7 +8350,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376">
+      <c r="A376" s="2">
         <v>3533205</v>
       </c>
       <c r="B376" t="s">
@@ -8358,7 +8361,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377">
+      <c r="A377" s="2">
         <v>3533254</v>
       </c>
       <c r="B377" t="s">
@@ -8369,7 +8372,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378">
+      <c r="A378" s="2">
         <v>3533304</v>
       </c>
       <c r="B378" t="s">
@@ -8380,7 +8383,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379">
+      <c r="A379" s="2">
         <v>3533403</v>
       </c>
       <c r="B379" t="s">
@@ -8391,7 +8394,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380">
+      <c r="A380" s="2">
         <v>3533502</v>
       </c>
       <c r="B380" t="s">
@@ -8402,7 +8405,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381">
+      <c r="A381" s="2">
         <v>3533601</v>
       </c>
       <c r="B381" t="s">
@@ -8413,7 +8416,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382">
+      <c r="A382" s="2">
         <v>3533700</v>
       </c>
       <c r="B382" t="s">
@@ -8424,7 +8427,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383">
+      <c r="A383" s="2">
         <v>3533809</v>
       </c>
       <c r="B383" t="s">
@@ -8435,7 +8438,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384">
+      <c r="A384" s="2">
         <v>3533908</v>
       </c>
       <c r="B384" t="s">
@@ -8446,7 +8449,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385">
+      <c r="A385" s="2">
         <v>3534005</v>
       </c>
       <c r="B385" t="s">
@@ -8457,7 +8460,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386">
+      <c r="A386" s="2">
         <v>3534104</v>
       </c>
       <c r="B386" t="s">
@@ -8468,7 +8471,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387">
+      <c r="A387" s="2">
         <v>3534203</v>
       </c>
       <c r="B387" t="s">
@@ -8479,7 +8482,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388">
+      <c r="A388" s="2">
         <v>3534302</v>
       </c>
       <c r="B388" t="s">
@@ -8490,7 +8493,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389">
+      <c r="A389" s="2">
         <v>3534401</v>
       </c>
       <c r="B389" t="s">
@@ -8501,7 +8504,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390">
+      <c r="A390" s="2">
         <v>3534500</v>
       </c>
       <c r="B390" t="s">
@@ -8512,7 +8515,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391">
+      <c r="A391" s="2">
         <v>3534609</v>
       </c>
       <c r="B391" t="s">
@@ -8523,7 +8526,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392">
+      <c r="A392" s="2">
         <v>3534708</v>
       </c>
       <c r="B392" t="s">
@@ -8534,7 +8537,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393">
+      <c r="A393" s="2">
         <v>3534757</v>
       </c>
       <c r="B393" t="s">
@@ -8545,7 +8548,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394">
+      <c r="A394" s="2">
         <v>3534807</v>
       </c>
       <c r="B394" t="s">
@@ -8556,7 +8559,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395">
+      <c r="A395" s="2">
         <v>3534906</v>
       </c>
       <c r="B395" t="s">
@@ -8567,7 +8570,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396">
+      <c r="A396" s="2">
         <v>3535002</v>
       </c>
       <c r="B396" t="s">
@@ -8578,7 +8581,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397">
+      <c r="A397" s="2">
         <v>3535101</v>
       </c>
       <c r="B397" t="s">
@@ -8589,7 +8592,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398">
+      <c r="A398" s="2">
         <v>3535200</v>
       </c>
       <c r="B398" t="s">
@@ -8600,7 +8603,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399">
+      <c r="A399" s="2">
         <v>3535309</v>
       </c>
       <c r="B399" t="s">
@@ -8611,7 +8614,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400">
+      <c r="A400" s="2">
         <v>3535408</v>
       </c>
       <c r="B400" t="s">
@@ -8622,7 +8625,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401">
+      <c r="A401" s="2">
         <v>3535507</v>
       </c>
       <c r="B401" t="s">
@@ -8633,7 +8636,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402">
+      <c r="A402" s="2">
         <v>3535606</v>
       </c>
       <c r="B402" t="s">
@@ -8644,7 +8647,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403">
+      <c r="A403" s="2">
         <v>3535705</v>
       </c>
       <c r="B403" t="s">
@@ -8655,7 +8658,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404">
+      <c r="A404" s="2">
         <v>3535804</v>
       </c>
       <c r="B404" t="s">
@@ -8666,7 +8669,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405">
+      <c r="A405" s="2">
         <v>3535903</v>
       </c>
       <c r="B405" t="s">
@@ -8677,7 +8680,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406">
+      <c r="A406" s="2">
         <v>3536000</v>
       </c>
       <c r="B406" t="s">
@@ -8688,7 +8691,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407">
+      <c r="A407" s="2">
         <v>3536109</v>
       </c>
       <c r="B407" t="s">
@@ -8699,7 +8702,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408">
+      <c r="A408" s="2">
         <v>3536208</v>
       </c>
       <c r="B408" t="s">
@@ -8710,7 +8713,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409">
+      <c r="A409" s="2">
         <v>3536257</v>
       </c>
       <c r="B409" t="s">
@@ -8721,7 +8724,7 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410">
+      <c r="A410" s="2">
         <v>3536307</v>
       </c>
       <c r="B410" t="s">
@@ -8732,7 +8735,7 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411">
+      <c r="A411" s="2">
         <v>3536406</v>
       </c>
       <c r="B411" t="s">
@@ -8743,7 +8746,7 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412">
+      <c r="A412" s="2">
         <v>3536505</v>
       </c>
       <c r="B412" t="s">
@@ -8754,7 +8757,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413">
+      <c r="A413" s="2">
         <v>3536570</v>
       </c>
       <c r="B413" t="s">
@@ -8765,7 +8768,7 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414">
+      <c r="A414" s="2">
         <v>3536604</v>
       </c>
       <c r="B414" t="s">
@@ -8776,7 +8779,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415">
+      <c r="A415" s="2">
         <v>3536703</v>
       </c>
       <c r="B415" t="s">
@@ -8787,7 +8790,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416">
+      <c r="A416" s="2">
         <v>3536802</v>
       </c>
       <c r="B416" t="s">
@@ -8798,7 +8801,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417">
+      <c r="A417" s="2">
         <v>3536901</v>
       </c>
       <c r="B417" t="s">
@@ -8809,7 +8812,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418">
+      <c r="A418" s="2">
         <v>3537008</v>
       </c>
       <c r="B418" t="s">
@@ -8820,7 +8823,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419">
+      <c r="A419" s="2">
         <v>3537107</v>
       </c>
       <c r="B419" t="s">
@@ -8831,7 +8834,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420">
+      <c r="A420" s="2">
         <v>3537156</v>
       </c>
       <c r="B420" t="s">
@@ -8842,7 +8845,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421">
+      <c r="A421" s="2">
         <v>3537206</v>
       </c>
       <c r="B421" t="s">
@@ -8853,7 +8856,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422">
+      <c r="A422" s="2">
         <v>3537305</v>
       </c>
       <c r="B422" t="s">
@@ -8864,7 +8867,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423">
+      <c r="A423" s="2">
         <v>3537404</v>
       </c>
       <c r="B423" t="s">
@@ -8875,7 +8878,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424">
+      <c r="A424" s="2">
         <v>3537503</v>
       </c>
       <c r="B424" t="s">
@@ -8886,7 +8889,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425">
+      <c r="A425" s="2">
         <v>3537602</v>
       </c>
       <c r="B425" t="s">
@@ -8897,7 +8900,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426">
+      <c r="A426" s="2">
         <v>3537701</v>
       </c>
       <c r="B426" t="s">
@@ -8908,7 +8911,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427">
+      <c r="A427" s="2">
         <v>3537800</v>
       </c>
       <c r="B427" t="s">
@@ -8919,7 +8922,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428">
+      <c r="A428" s="2">
         <v>3537909</v>
       </c>
       <c r="B428" t="s">
@@ -8930,7 +8933,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429">
+      <c r="A429" s="2">
         <v>3538006</v>
       </c>
       <c r="B429" t="s">
@@ -8941,7 +8944,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430">
+      <c r="A430" s="2">
         <v>3538105</v>
       </c>
       <c r="B430" t="s">
@@ -8952,7 +8955,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431">
+      <c r="A431" s="2">
         <v>3538204</v>
       </c>
       <c r="B431" t="s">
@@ -8963,7 +8966,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432">
+      <c r="A432" s="2">
         <v>3538303</v>
       </c>
       <c r="B432" t="s">
@@ -8974,7 +8977,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433">
+      <c r="A433" s="2">
         <v>3538501</v>
       </c>
       <c r="B433" t="s">
@@ -8985,7 +8988,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434">
+      <c r="A434" s="2">
         <v>3538600</v>
       </c>
       <c r="B434" t="s">
@@ -8996,7 +8999,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435">
+      <c r="A435" s="2">
         <v>3538709</v>
       </c>
       <c r="B435" t="s">
@@ -9007,7 +9010,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436">
+      <c r="A436" s="2">
         <v>3538808</v>
       </c>
       <c r="B436" t="s">
@@ -9018,7 +9021,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437">
+      <c r="A437" s="2">
         <v>3538907</v>
       </c>
       <c r="B437" t="s">
@@ -9029,7 +9032,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438">
+      <c r="A438" s="2">
         <v>3539004</v>
       </c>
       <c r="B438" t="s">
@@ -9040,7 +9043,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439">
+      <c r="A439" s="2">
         <v>3539103</v>
       </c>
       <c r="B439" t="s">
@@ -9051,7 +9054,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440">
+      <c r="A440" s="2">
         <v>3539202</v>
       </c>
       <c r="B440" t="s">
@@ -9062,7 +9065,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441">
+      <c r="A441" s="2">
         <v>3539301</v>
       </c>
       <c r="B441" t="s">
@@ -9073,7 +9076,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442">
+      <c r="A442" s="2">
         <v>3539400</v>
       </c>
       <c r="B442" t="s">
@@ -9084,7 +9087,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443">
+      <c r="A443" s="2">
         <v>3539509</v>
       </c>
       <c r="B443" t="s">
@@ -9095,7 +9098,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444">
+      <c r="A444" s="2">
         <v>3539608</v>
       </c>
       <c r="B444" t="s">
@@ -9106,7 +9109,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445">
+      <c r="A445" s="2">
         <v>3539707</v>
       </c>
       <c r="B445" t="s">
@@ -9117,7 +9120,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446">
+      <c r="A446" s="2">
         <v>3539806</v>
       </c>
       <c r="B446" t="s">
@@ -9128,7 +9131,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447">
+      <c r="A447" s="2">
         <v>3539905</v>
       </c>
       <c r="B447" t="s">
@@ -9139,7 +9142,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448">
+      <c r="A448" s="2">
         <v>3540002</v>
       </c>
       <c r="B448" t="s">
@@ -9150,7 +9153,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449">
+      <c r="A449" s="2">
         <v>3540101</v>
       </c>
       <c r="B449" t="s">
@@ -9161,7 +9164,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450">
+      <c r="A450" s="2">
         <v>3540200</v>
       </c>
       <c r="B450" t="s">
@@ -9172,7 +9175,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451">
+      <c r="A451" s="2">
         <v>3540259</v>
       </c>
       <c r="B451" t="s">
@@ -9183,7 +9186,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452">
+      <c r="A452" s="2">
         <v>3540309</v>
       </c>
       <c r="B452" t="s">
@@ -9194,7 +9197,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453">
+      <c r="A453" s="2">
         <v>3540408</v>
       </c>
       <c r="B453" t="s">
@@ -9205,7 +9208,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454">
+      <c r="A454" s="2">
         <v>3540507</v>
       </c>
       <c r="B454" t="s">
@@ -9216,7 +9219,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455">
+      <c r="A455" s="2">
         <v>3540606</v>
       </c>
       <c r="B455" t="s">
@@ -9227,7 +9230,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456">
+      <c r="A456" s="2">
         <v>3540705</v>
       </c>
       <c r="B456" t="s">
@@ -9238,7 +9241,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457">
+      <c r="A457" s="2">
         <v>3540754</v>
       </c>
       <c r="B457" t="s">
@@ -9249,7 +9252,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458">
+      <c r="A458" s="2">
         <v>3540804</v>
       </c>
       <c r="B458" t="s">
@@ -9260,7 +9263,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459">
+      <c r="A459" s="2">
         <v>3540853</v>
       </c>
       <c r="B459" t="s">
@@ -9271,7 +9274,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460">
+      <c r="A460" s="2">
         <v>3540903</v>
       </c>
       <c r="B460" t="s">
@@ -9282,7 +9285,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461">
+      <c r="A461" s="2">
         <v>3541000</v>
       </c>
       <c r="B461" t="s">
@@ -9293,7 +9296,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462">
+      <c r="A462" s="2">
         <v>3541059</v>
       </c>
       <c r="B462" t="s">
@@ -9304,7 +9307,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463">
+      <c r="A463" s="2">
         <v>3541109</v>
       </c>
       <c r="B463" t="s">
@@ -9315,7 +9318,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464">
+      <c r="A464" s="2">
         <v>3541208</v>
       </c>
       <c r="B464" t="s">
@@ -9326,7 +9329,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465">
+      <c r="A465" s="2">
         <v>3541307</v>
       </c>
       <c r="B465" t="s">
@@ -9337,7 +9340,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466">
+      <c r="A466" s="2">
         <v>3541406</v>
       </c>
       <c r="B466" t="s">
@@ -9348,7 +9351,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467">
+      <c r="A467" s="2">
         <v>3541505</v>
       </c>
       <c r="B467" t="s">
@@ -9359,7 +9362,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468">
+      <c r="A468" s="2">
         <v>3541604</v>
       </c>
       <c r="B468" t="s">
@@ -9370,7 +9373,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469">
+      <c r="A469" s="2">
         <v>3541653</v>
       </c>
       <c r="B469" t="s">
@@ -9381,7 +9384,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470">
+      <c r="A470" s="2">
         <v>3541703</v>
       </c>
       <c r="B470" t="s">
@@ -9392,7 +9395,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471">
+      <c r="A471" s="2">
         <v>3541802</v>
       </c>
       <c r="B471" t="s">
@@ -9403,7 +9406,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472">
+      <c r="A472" s="2">
         <v>3541901</v>
       </c>
       <c r="B472" t="s">
@@ -9414,7 +9417,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473">
+      <c r="A473" s="2">
         <v>3542008</v>
       </c>
       <c r="B473" t="s">
@@ -9425,7 +9428,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474">
+      <c r="A474" s="2">
         <v>3542107</v>
       </c>
       <c r="B474" t="s">
@@ -9436,7 +9439,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475">
+      <c r="A475" s="2">
         <v>3542206</v>
       </c>
       <c r="B475" t="s">
@@ -9447,7 +9450,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476">
+      <c r="A476" s="2">
         <v>3542305</v>
       </c>
       <c r="B476" t="s">
@@ -9458,7 +9461,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477">
+      <c r="A477" s="2">
         <v>3542404</v>
       </c>
       <c r="B477" t="s">
@@ -9469,7 +9472,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478">
+      <c r="A478" s="2">
         <v>3542503</v>
       </c>
       <c r="B478" t="s">
@@ -9480,7 +9483,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479">
+      <c r="A479" s="2">
         <v>3542602</v>
       </c>
       <c r="B479" t="s">
@@ -9491,7 +9494,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480">
+      <c r="A480" s="2">
         <v>3542701</v>
       </c>
       <c r="B480" t="s">
@@ -9502,7 +9505,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481">
+      <c r="A481" s="2">
         <v>3542800</v>
       </c>
       <c r="B481" t="s">
@@ -9513,7 +9516,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482">
+      <c r="A482" s="2">
         <v>3542909</v>
       </c>
       <c r="B482" t="s">
@@ -9524,7 +9527,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483">
+      <c r="A483" s="2">
         <v>3543006</v>
       </c>
       <c r="B483" t="s">
@@ -9535,7 +9538,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484">
+      <c r="A484" s="2">
         <v>3543105</v>
       </c>
       <c r="B484" t="s">
@@ -9546,7 +9549,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485">
+      <c r="A485" s="2">
         <v>3543204</v>
       </c>
       <c r="B485" t="s">
@@ -9557,7 +9560,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486">
+      <c r="A486" s="2">
         <v>3543238</v>
       </c>
       <c r="B486" t="s">
@@ -9568,7 +9571,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487">
+      <c r="A487" s="2">
         <v>3543253</v>
       </c>
       <c r="B487" t="s">
@@ -9579,7 +9582,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488">
+      <c r="A488" s="2">
         <v>3543303</v>
       </c>
       <c r="B488" t="s">
@@ -9590,7 +9593,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489">
+      <c r="A489" s="2">
         <v>3543402</v>
       </c>
       <c r="B489" t="s">
@@ -9601,7 +9604,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490">
+      <c r="A490" s="2">
         <v>3543501</v>
       </c>
       <c r="B490" t="s">
@@ -9612,7 +9615,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491">
+      <c r="A491" s="2">
         <v>3543600</v>
       </c>
       <c r="B491" t="s">
@@ -9623,7 +9626,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492">
+      <c r="A492" s="2">
         <v>3543709</v>
       </c>
       <c r="B492" t="s">
@@ -9634,7 +9637,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493">
+      <c r="A493" s="2">
         <v>3543808</v>
       </c>
       <c r="B493" t="s">
@@ -9645,7 +9648,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494">
+      <c r="A494" s="2">
         <v>3543907</v>
       </c>
       <c r="B494" t="s">
@@ -9656,7 +9659,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495">
+      <c r="A495" s="2">
         <v>3544004</v>
       </c>
       <c r="B495" t="s">
@@ -9667,7 +9670,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496">
+      <c r="A496" s="2">
         <v>3544103</v>
       </c>
       <c r="B496" t="s">
@@ -9678,7 +9681,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497">
+      <c r="A497" s="2">
         <v>3544202</v>
       </c>
       <c r="B497" t="s">
@@ -9689,7 +9692,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498">
+      <c r="A498" s="2">
         <v>3544251</v>
       </c>
       <c r="B498" t="s">
@@ -9700,7 +9703,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499">
+      <c r="A499" s="2">
         <v>3544301</v>
       </c>
       <c r="B499" t="s">
@@ -9711,7 +9714,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500">
+      <c r="A500" s="2">
         <v>3544400</v>
       </c>
       <c r="B500" t="s">
@@ -9722,7 +9725,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501">
+      <c r="A501" s="2">
         <v>3544509</v>
       </c>
       <c r="B501" t="s">
@@ -9733,7 +9736,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502">
+      <c r="A502" s="2">
         <v>3544608</v>
       </c>
       <c r="B502" t="s">
@@ -9744,7 +9747,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503">
+      <c r="A503" s="2">
         <v>3544707</v>
       </c>
       <c r="B503" t="s">
@@ -9755,7 +9758,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504">
+      <c r="A504" s="2">
         <v>3544806</v>
       </c>
       <c r="B504" t="s">
@@ -9766,7 +9769,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505">
+      <c r="A505" s="2">
         <v>3544905</v>
       </c>
       <c r="B505" t="s">
@@ -9777,7 +9780,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506">
+      <c r="A506" s="2">
         <v>3545001</v>
       </c>
       <c r="B506" t="s">
@@ -9788,7 +9791,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507">
+      <c r="A507" s="2">
         <v>3545100</v>
       </c>
       <c r="B507" t="s">
@@ -9799,7 +9802,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508">
+      <c r="A508" s="2">
         <v>3545159</v>
       </c>
       <c r="B508" t="s">
@@ -9810,7 +9813,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509">
+      <c r="A509" s="2">
         <v>3545209</v>
       </c>
       <c r="B509" t="s">
@@ -9821,7 +9824,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510">
+      <c r="A510" s="2">
         <v>3545308</v>
       </c>
       <c r="B510" t="s">
@@ -9832,7 +9835,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511">
+      <c r="A511" s="2">
         <v>3545407</v>
       </c>
       <c r="B511" t="s">
@@ -9843,7 +9846,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512">
+      <c r="A512" s="2">
         <v>3545506</v>
       </c>
       <c r="B512" t="s">
@@ -9854,7 +9857,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513">
+      <c r="A513" s="2">
         <v>3545605</v>
       </c>
       <c r="B513" t="s">
@@ -9865,7 +9868,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514">
+      <c r="A514" s="2">
         <v>3545704</v>
       </c>
       <c r="B514" t="s">
@@ -9876,7 +9879,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515">
+      <c r="A515" s="2">
         <v>3545803</v>
       </c>
       <c r="B515" t="s">
@@ -9887,7 +9890,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516">
+      <c r="A516" s="2">
         <v>3546009</v>
       </c>
       <c r="B516" t="s">
@@ -9898,7 +9901,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517">
+      <c r="A517" s="2">
         <v>3546108</v>
       </c>
       <c r="B517" t="s">
@@ -9909,7 +9912,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518">
+      <c r="A518" s="2">
         <v>3546207</v>
       </c>
       <c r="B518" t="s">
@@ -9920,7 +9923,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519">
+      <c r="A519" s="2">
         <v>3546256</v>
       </c>
       <c r="B519" t="s">
@@ -9931,7 +9934,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520">
+      <c r="A520" s="2">
         <v>3546306</v>
       </c>
       <c r="B520" t="s">
@@ -9942,7 +9945,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521">
+      <c r="A521" s="2">
         <v>3546405</v>
       </c>
       <c r="B521" t="s">
@@ -9953,7 +9956,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522">
+      <c r="A522" s="2">
         <v>3546504</v>
       </c>
       <c r="B522" t="s">
@@ -9964,7 +9967,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523">
+      <c r="A523" s="2">
         <v>3546603</v>
       </c>
       <c r="B523" t="s">
@@ -9975,7 +9978,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524">
+      <c r="A524" s="2">
         <v>3546702</v>
       </c>
       <c r="B524" t="s">
@@ -9986,7 +9989,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525">
+      <c r="A525" s="2">
         <v>3546801</v>
       </c>
       <c r="B525" t="s">
@@ -9997,7 +10000,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526">
+      <c r="A526" s="2">
         <v>3546900</v>
       </c>
       <c r="B526" t="s">
@@ -10008,7 +10011,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527">
+      <c r="A527" s="2">
         <v>3547007</v>
       </c>
       <c r="B527" t="s">
@@ -10019,7 +10022,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528">
+      <c r="A528" s="2">
         <v>3547106</v>
       </c>
       <c r="B528" t="s">
@@ -10030,7 +10033,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529">
+      <c r="A529" s="2">
         <v>3547205</v>
       </c>
       <c r="B529" t="s">
@@ -10041,7 +10044,7 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530">
+      <c r="A530" s="2">
         <v>3547304</v>
       </c>
       <c r="B530" t="s">
@@ -10052,7 +10055,7 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531">
+      <c r="A531" s="2">
         <v>3547403</v>
       </c>
       <c r="B531" t="s">
@@ -10063,7 +10066,7 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532">
+      <c r="A532" s="2">
         <v>3547502</v>
       </c>
       <c r="B532" t="s">
@@ -10074,7 +10077,7 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533">
+      <c r="A533" s="2">
         <v>3547601</v>
       </c>
       <c r="B533" t="s">
@@ -10085,7 +10088,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534">
+      <c r="A534" s="2">
         <v>3547650</v>
       </c>
       <c r="B534" t="s">
@@ -10096,7 +10099,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535">
+      <c r="A535" s="2">
         <v>3547700</v>
       </c>
       <c r="B535" t="s">
@@ -10107,7 +10110,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536">
+      <c r="A536" s="2">
         <v>3547809</v>
       </c>
       <c r="B536" t="s">
@@ -10118,7 +10121,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537">
+      <c r="A537" s="2">
         <v>3547908</v>
       </c>
       <c r="B537" t="s">
@@ -10129,7 +10132,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538">
+      <c r="A538" s="2">
         <v>3548005</v>
       </c>
       <c r="B538" t="s">
@@ -10140,7 +10143,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539">
+      <c r="A539" s="2">
         <v>3548054</v>
       </c>
       <c r="B539" t="s">
@@ -10151,7 +10154,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540">
+      <c r="A540" s="2">
         <v>3548104</v>
       </c>
       <c r="B540" t="s">
@@ -10162,7 +10165,7 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541">
+      <c r="A541" s="2">
         <v>3548203</v>
       </c>
       <c r="B541" t="s">
@@ -10173,7 +10176,7 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542">
+      <c r="A542" s="2">
         <v>3548302</v>
       </c>
       <c r="B542" t="s">
@@ -10184,7 +10187,7 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543">
+      <c r="A543" s="2">
         <v>3548401</v>
       </c>
       <c r="B543" t="s">
@@ -10195,7 +10198,7 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544">
+      <c r="A544" s="2">
         <v>3548500</v>
       </c>
       <c r="B544" t="s">
@@ -10206,7 +10209,7 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545">
+      <c r="A545" s="2">
         <v>3548609</v>
       </c>
       <c r="B545" t="s">
@@ -10217,7 +10220,7 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546">
+      <c r="A546" s="2">
         <v>3548708</v>
       </c>
       <c r="B546" t="s">
@@ -10228,7 +10231,7 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547">
+      <c r="A547" s="2">
         <v>3548807</v>
       </c>
       <c r="B547" t="s">
@@ -10239,7 +10242,7 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548">
+      <c r="A548" s="2">
         <v>3548906</v>
       </c>
       <c r="B548" t="s">
@@ -10250,7 +10253,7 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549">
+      <c r="A549" s="2">
         <v>3549003</v>
       </c>
       <c r="B549" t="s">
@@ -10261,7 +10264,7 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550">
+      <c r="A550" s="2">
         <v>3549102</v>
       </c>
       <c r="B550" t="s">
@@ -10272,7 +10275,7 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551">
+      <c r="A551" s="2">
         <v>3549201</v>
       </c>
       <c r="B551" t="s">
@@ -10283,7 +10286,7 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552">
+      <c r="A552" s="2">
         <v>3549250</v>
       </c>
       <c r="B552" t="s">
@@ -10294,7 +10297,7 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553">
+      <c r="A553" s="2">
         <v>3549300</v>
       </c>
       <c r="B553" t="s">
@@ -10305,7 +10308,7 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554">
+      <c r="A554" s="2">
         <v>3549409</v>
       </c>
       <c r="B554" t="s">
@@ -10316,7 +10319,7 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555">
+      <c r="A555" s="2">
         <v>3549508</v>
       </c>
       <c r="B555" t="s">
@@ -10327,7 +10330,7 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556">
+      <c r="A556" s="2">
         <v>3549607</v>
       </c>
       <c r="B556" t="s">
@@ -10338,7 +10341,7 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557">
+      <c r="A557" s="2">
         <v>3549706</v>
       </c>
       <c r="B557" t="s">
@@ -10349,7 +10352,7 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558">
+      <c r="A558" s="2">
         <v>3549805</v>
       </c>
       <c r="B558" t="s">
@@ -10360,7 +10363,7 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559">
+      <c r="A559" s="2">
         <v>3549904</v>
       </c>
       <c r="B559" t="s">
@@ -10371,7 +10374,7 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560">
+      <c r="A560" s="2">
         <v>3549953</v>
       </c>
       <c r="B560" t="s">
@@ -10382,7 +10385,7 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561">
+      <c r="A561" s="2">
         <v>3550001</v>
       </c>
       <c r="B561" t="s">
@@ -10393,7 +10396,7 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562">
+      <c r="A562" s="2">
         <v>3550100</v>
       </c>
       <c r="B562" t="s">
@@ -10404,7 +10407,7 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563">
+      <c r="A563" s="2">
         <v>3550209</v>
       </c>
       <c r="B563" t="s">
@@ -10415,7 +10418,7 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564">
+      <c r="A564" s="2">
         <v>3550308</v>
       </c>
       <c r="B564" t="s">
@@ -10426,7 +10429,7 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565">
+      <c r="A565" s="2">
         <v>3550407</v>
       </c>
       <c r="B565" t="s">
@@ -10437,7 +10440,7 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566">
+      <c r="A566" s="2">
         <v>3550506</v>
       </c>
       <c r="B566" t="s">
@@ -10448,7 +10451,7 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567">
+      <c r="A567" s="2">
         <v>3550605</v>
       </c>
       <c r="B567" t="s">
@@ -10459,7 +10462,7 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568">
+      <c r="A568" s="2">
         <v>3550704</v>
       </c>
       <c r="B568" t="s">
@@ -10470,7 +10473,7 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569">
+      <c r="A569" s="2">
         <v>3550803</v>
       </c>
       <c r="B569" t="s">
@@ -10481,7 +10484,7 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570">
+      <c r="A570" s="2">
         <v>3550902</v>
       </c>
       <c r="B570" t="s">
@@ -10492,7 +10495,7 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571">
+      <c r="A571" s="2">
         <v>3551009</v>
       </c>
       <c r="B571" t="s">
@@ -10503,7 +10506,7 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572">
+      <c r="A572" s="2">
         <v>3551108</v>
       </c>
       <c r="B572" t="s">
@@ -10514,7 +10517,7 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573">
+      <c r="A573" s="2">
         <v>3551207</v>
       </c>
       <c r="B573" t="s">
@@ -10525,7 +10528,7 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574">
+      <c r="A574" s="2">
         <v>3551306</v>
       </c>
       <c r="B574" t="s">
@@ -10536,7 +10539,7 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575">
+      <c r="A575" s="2">
         <v>3551405</v>
       </c>
       <c r="B575" t="s">
@@ -10547,7 +10550,7 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576">
+      <c r="A576" s="2">
         <v>3551504</v>
       </c>
       <c r="B576" t="s">
@@ -10558,7 +10561,7 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577">
+      <c r="A577" s="2">
         <v>3551603</v>
       </c>
       <c r="B577" t="s">
@@ -10569,7 +10572,7 @@
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578">
+      <c r="A578" s="2">
         <v>3551702</v>
       </c>
       <c r="B578" t="s">
@@ -10580,7 +10583,7 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579">
+      <c r="A579" s="2">
         <v>3551801</v>
       </c>
       <c r="B579" t="s">
@@ -10591,7 +10594,7 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580">
+      <c r="A580" s="2">
         <v>3551900</v>
       </c>
       <c r="B580" t="s">
@@ -10602,7 +10605,7 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581">
+      <c r="A581" s="2">
         <v>3552007</v>
       </c>
       <c r="B581" t="s">
@@ -10613,7 +10616,7 @@
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582">
+      <c r="A582" s="2">
         <v>3552106</v>
       </c>
       <c r="B582" t="s">
@@ -10624,7 +10627,7 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583">
+      <c r="A583" s="2">
         <v>3552205</v>
       </c>
       <c r="B583" t="s">
@@ -10635,7 +10638,7 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584">
+      <c r="A584" s="2">
         <v>3552304</v>
       </c>
       <c r="B584" t="s">
@@ -10646,7 +10649,7 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585">
+      <c r="A585" s="2">
         <v>3552403</v>
       </c>
       <c r="B585" t="s">
@@ -10657,7 +10660,7 @@
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586">
+      <c r="A586" s="2">
         <v>3552502</v>
       </c>
       <c r="B586" t="s">
@@ -10668,7 +10671,7 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587">
+      <c r="A587" s="2">
         <v>3552551</v>
       </c>
       <c r="B587" t="s">
@@ -10679,7 +10682,7 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588">
+      <c r="A588" s="2">
         <v>3552601</v>
       </c>
       <c r="B588" t="s">
@@ -10690,7 +10693,7 @@
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589">
+      <c r="A589" s="2">
         <v>3552700</v>
       </c>
       <c r="B589" t="s">
@@ -10701,7 +10704,7 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590">
+      <c r="A590" s="2">
         <v>3552809</v>
       </c>
       <c r="B590" t="s">
@@ -10712,7 +10715,7 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591">
+      <c r="A591" s="2">
         <v>3552908</v>
       </c>
       <c r="B591" t="s">
@@ -10723,7 +10726,7 @@
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592">
+      <c r="A592" s="2">
         <v>3553005</v>
       </c>
       <c r="B592" t="s">
@@ -10734,7 +10737,7 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593">
+      <c r="A593" s="2">
         <v>3553104</v>
       </c>
       <c r="B593" t="s">
@@ -10745,7 +10748,7 @@
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594">
+      <c r="A594" s="2">
         <v>3553203</v>
       </c>
       <c r="B594" t="s">
@@ -10756,7 +10759,7 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595">
+      <c r="A595" s="2">
         <v>3553302</v>
       </c>
       <c r="B595" t="s">
@@ -10767,7 +10770,7 @@
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596">
+      <c r="A596" s="2">
         <v>3553401</v>
       </c>
       <c r="B596" t="s">
@@ -10778,7 +10781,7 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A597">
+      <c r="A597" s="2">
         <v>3553500</v>
       </c>
       <c r="B597" t="s">
@@ -10789,7 +10792,7 @@
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A598">
+      <c r="A598" s="2">
         <v>3553609</v>
       </c>
       <c r="B598" t="s">
@@ -10800,7 +10803,7 @@
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A599">
+      <c r="A599" s="2">
         <v>3553658</v>
       </c>
       <c r="B599" t="s">
@@ -10811,7 +10814,7 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600">
+      <c r="A600" s="2">
         <v>3553708</v>
       </c>
       <c r="B600" t="s">
@@ -10822,7 +10825,7 @@
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601">
+      <c r="A601" s="2">
         <v>3553807</v>
       </c>
       <c r="B601" t="s">
@@ -10833,7 +10836,7 @@
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602">
+      <c r="A602" s="2">
         <v>3553856</v>
       </c>
       <c r="B602" t="s">
@@ -10844,7 +10847,7 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A603">
+      <c r="A603" s="2">
         <v>3553906</v>
       </c>
       <c r="B603" t="s">
@@ -10855,7 +10858,7 @@
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604">
+      <c r="A604" s="2">
         <v>3553955</v>
       </c>
       <c r="B604" t="s">
@@ -10866,7 +10869,7 @@
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605">
+      <c r="A605" s="2">
         <v>3554003</v>
       </c>
       <c r="B605" t="s">
@@ -10877,7 +10880,7 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606">
+      <c r="A606" s="2">
         <v>3554102</v>
       </c>
       <c r="B606" t="s">
@@ -10888,7 +10891,7 @@
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607">
+      <c r="A607" s="2">
         <v>3554201</v>
       </c>
       <c r="B607" t="s">
@@ -10899,7 +10902,7 @@
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608">
+      <c r="A608" s="2">
         <v>3554300</v>
       </c>
       <c r="B608" t="s">
@@ -10910,7 +10913,7 @@
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609">
+      <c r="A609" s="2">
         <v>3554409</v>
       </c>
       <c r="B609" t="s">
@@ -10921,7 +10924,7 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610">
+      <c r="A610" s="2">
         <v>3554508</v>
       </c>
       <c r="B610" t="s">
@@ -10932,7 +10935,7 @@
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611">
+      <c r="A611" s="2">
         <v>3554607</v>
       </c>
       <c r="B611" t="s">
@@ -10943,7 +10946,7 @@
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612">
+      <c r="A612" s="2">
         <v>3554656</v>
       </c>
       <c r="B612" t="s">
@@ -10954,7 +10957,7 @@
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613">
+      <c r="A613" s="2">
         <v>3554706</v>
       </c>
       <c r="B613" t="s">
@@ -10965,7 +10968,7 @@
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614">
+      <c r="A614" s="2">
         <v>3554755</v>
       </c>
       <c r="B614" t="s">
@@ -10976,7 +10979,7 @@
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A615">
+      <c r="A615" s="2">
         <v>3554805</v>
       </c>
       <c r="B615" t="s">
@@ -10987,7 +10990,7 @@
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616">
+      <c r="A616" s="2">
         <v>3554904</v>
       </c>
       <c r="B616" t="s">
@@ -10998,7 +11001,7 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617">
+      <c r="A617" s="2">
         <v>3554953</v>
       </c>
       <c r="B617" t="s">
@@ -11009,7 +11012,7 @@
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A618">
+      <c r="A618" s="2">
         <v>3555000</v>
       </c>
       <c r="B618" t="s">
@@ -11020,7 +11023,7 @@
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A619">
+      <c r="A619" s="2">
         <v>3555109</v>
       </c>
       <c r="B619" t="s">
@@ -11031,7 +11034,7 @@
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A620">
+      <c r="A620" s="2">
         <v>3555208</v>
       </c>
       <c r="B620" t="s">
@@ -11042,7 +11045,7 @@
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A621">
+      <c r="A621" s="2">
         <v>3555307</v>
       </c>
       <c r="B621" t="s">
@@ -11053,7 +11056,7 @@
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A622">
+      <c r="A622" s="2">
         <v>3555356</v>
       </c>
       <c r="B622" t="s">
@@ -11064,7 +11067,7 @@
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A623">
+      <c r="A623" s="2">
         <v>3555406</v>
       </c>
       <c r="B623" t="s">
@@ -11075,7 +11078,7 @@
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624">
+      <c r="A624" s="2">
         <v>3555505</v>
       </c>
       <c r="B624" t="s">
@@ -11086,7 +11089,7 @@
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A625">
+      <c r="A625" s="2">
         <v>3555604</v>
       </c>
       <c r="B625" t="s">
@@ -11097,7 +11100,7 @@
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626">
+      <c r="A626" s="2">
         <v>3555703</v>
       </c>
       <c r="B626" t="s">
@@ -11108,7 +11111,7 @@
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627">
+      <c r="A627" s="2">
         <v>3555802</v>
       </c>
       <c r="B627" t="s">
@@ -11119,7 +11122,7 @@
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A628">
+      <c r="A628" s="2">
         <v>3555901</v>
       </c>
       <c r="B628" t="s">
@@ -11130,7 +11133,7 @@
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A629">
+      <c r="A629" s="2">
         <v>3556008</v>
       </c>
       <c r="B629" t="s">
@@ -11141,7 +11144,7 @@
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630">
+      <c r="A630" s="2">
         <v>3556107</v>
       </c>
       <c r="B630" t="s">
@@ -11152,7 +11155,7 @@
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A631">
+      <c r="A631" s="2">
         <v>3556206</v>
       </c>
       <c r="B631" t="s">
@@ -11163,7 +11166,7 @@
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A632">
+      <c r="A632" s="2">
         <v>3556305</v>
       </c>
       <c r="B632" t="s">
@@ -11174,7 +11177,7 @@
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A633">
+      <c r="A633" s="2">
         <v>3556354</v>
       </c>
       <c r="B633" t="s">
@@ -11185,7 +11188,7 @@
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A634">
+      <c r="A634" s="2">
         <v>3556404</v>
       </c>
       <c r="B634" t="s">
@@ -11196,7 +11199,7 @@
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A635">
+      <c r="A635" s="2">
         <v>3556453</v>
       </c>
       <c r="B635" t="s">
@@ -11207,7 +11210,7 @@
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636">
+      <c r="A636" s="2">
         <v>3556503</v>
       </c>
       <c r="B636" t="s">
@@ -11218,7 +11221,7 @@
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A637">
+      <c r="A637" s="2">
         <v>3556602</v>
       </c>
       <c r="B637" t="s">
@@ -11229,7 +11232,7 @@
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A638">
+      <c r="A638" s="2">
         <v>3556701</v>
       </c>
       <c r="B638" t="s">
@@ -11240,7 +11243,7 @@
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A639">
+      <c r="A639" s="2">
         <v>3556800</v>
       </c>
       <c r="B639" t="s">
@@ -11251,7 +11254,7 @@
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A640">
+      <c r="A640" s="2">
         <v>3556909</v>
       </c>
       <c r="B640" t="s">
@@ -11262,7 +11265,7 @@
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A641">
+      <c r="A641" s="2">
         <v>3556958</v>
       </c>
       <c r="B641" t="s">
@@ -11273,7 +11276,7 @@
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A642">
+      <c r="A642" s="2">
         <v>3557006</v>
       </c>
       <c r="B642" t="s">
@@ -11284,7 +11287,7 @@
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A643">
+      <c r="A643" s="2">
         <v>3557105</v>
       </c>
       <c r="B643" t="s">
@@ -11295,7 +11298,7 @@
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A644">
+      <c r="A644" s="2">
         <v>3557154</v>
       </c>
       <c r="B644" t="s">
@@ -11306,7 +11309,7 @@
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A645">
+      <c r="A645" s="2">
         <v>3557204</v>
       </c>
       <c r="B645" t="s">
@@ -11317,7 +11320,7 @@
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A646">
+      <c r="A646" s="2">
         <v>3557303</v>
       </c>
       <c r="B646" t="s">
